--- a/src/main/resources/input/DB10/C3101_DB_AnalogV.xlsx
+++ b/src/main/resources/input/DB10/C3101_DB_AnalogV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28418"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itaren.ACC-NB-1196\Projects\910120_ANPZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itaren.ACC-NB-1196\Projects\910120_ANPZ\Step7Gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C01F7-C4C6-41CE-8516-136C0CF08913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1721CD-8718-45EA-B204-CD3F0EECE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7CBF68-F4FF-416A-8B8C-F4258C8B4A63}"/>
   </bookViews>
@@ -95,18 +95,6 @@
     <t>Temperature transmitter Compressor discharge 1st process stage</t>
   </si>
   <si>
-    <t>spareIW646</t>
-  </si>
-  <si>
-    <t>spareIW648</t>
-  </si>
-  <si>
-    <t>spareIW650</t>
-  </si>
-  <si>
-    <t>spareIW652</t>
-  </si>
-  <si>
     <t>ZT6122</t>
   </si>
   <si>
@@ -288,6 +276,18 @@
   </si>
   <si>
     <t>valve set value Main Steam control valve</t>
+  </si>
+  <si>
+    <t>spare_S4C3</t>
+  </si>
+  <si>
+    <t>spare_S4C4</t>
+  </si>
+  <si>
+    <t>spare_S5C3</t>
+  </si>
+  <si>
+    <t>spare_S5C4</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14482C3E-F281-4A81-8A4C-B6DE0FC726B9}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,319 +760,319 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -1080,18 +1080,18 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
